--- a/OYM/_DocumentosComunes/_ProgEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/_ProgEstructurada.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARRLLOPERSONAL\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_kOneDrive\_DESARROLLO\_DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B656B18F-5997-47F6-BFDC-059884229DF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -471,7 +472,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,12 +518,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -537,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -553,6 +560,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,14 +845,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -1150,37 +1163,37 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="13" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="10">
         <v>10</v>
       </c>
-      <c r="E13" s="3">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="10">
+        <v>10</v>
+      </c>
+      <c r="F13" s="10">
         <v>20</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="10">
         <v>50</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="I13" s="5" t="str">
+        <v>90</v>
+      </c>
+      <c r="I13" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-      <c r="J13" s="3"/>
+        <v>A</v>
+      </c>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -1234,15 +1247,15 @@
         <v>16</v>
       </c>
       <c r="G15" s="3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>FI</v>
+        <v>D</v>
       </c>
       <c r="J15" s="3"/>
     </row>
@@ -1302,35 +1315,35 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    <row r="18" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="10">
         <v>10</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3">
+      <c r="E18" s="10">
         <v>5</v>
       </c>
-      <c r="G18" s="3">
+      <c r="F18" s="10">
         <v>18</v>
       </c>
-      <c r="H18" s="3">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I18" s="11" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
@@ -1418,37 +1431,37 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+    <row r="22" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="10">
         <v>10</v>
       </c>
-      <c r="E22" s="3">
-        <v>9</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="10">
+        <v>10</v>
+      </c>
+      <c r="F22" s="10">
         <v>20</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="10">
         <v>50</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="I22" s="5" t="str">
+        <v>90</v>
+      </c>
+      <c r="I22" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-      <c r="J22" s="3"/>
+        <v>A</v>
+      </c>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
@@ -1590,69 +1603,69 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+    <row r="28" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>25</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="10">
         <v>10</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="10">
         <v>15</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="10">
         <v>18</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="10">
         <v>50</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="10">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="I28" s="5" t="str">
+      <c r="I28" s="11" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>26</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="10">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="10">
         <v>15</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="10">
         <v>18</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="10">
         <v>50</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="10">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="I29" s="5" t="str">
+      <c r="I29" s="11" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="J29" s="3"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
@@ -1742,37 +1755,37 @@
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+    <row r="33" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <v>30</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="10">
         <v>10</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="10">
         <v>5</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="10">
         <v>13</v>
       </c>
-      <c r="G33" s="3">
-        <v>30</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="G33" s="10">
+        <v>42</v>
+      </c>
+      <c r="H33" s="10">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="I33" s="5" t="str">
+        <v>70</v>
+      </c>
+      <c r="I33" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>FI</v>
-      </c>
-      <c r="J33" s="3"/>
+        <v>D</v>
+      </c>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
@@ -2080,37 +2093,37 @@
       </c>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+    <row r="44" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
         <v>41</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="10">
         <v>10</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="10">
         <v>9</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="10">
         <v>20</v>
       </c>
-      <c r="G44" s="3">
-        <v>35</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="G44" s="10">
+        <v>36</v>
+      </c>
+      <c r="H44" s="10">
         <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="I44" s="5" t="str">
+        <v>75</v>
+      </c>
+      <c r="I44" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>D</v>
-      </c>
-      <c r="J44" s="3"/>
+        <v>C</v>
+      </c>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
@@ -2264,37 +2277,37 @@
       </c>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+    <row r="50" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
         <v>47</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="10">
         <v>10</v>
       </c>
-      <c r="E50" s="3">
-        <v>6</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="E50" s="10">
+        <v>10</v>
+      </c>
+      <c r="F50" s="10">
         <v>20</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="10">
         <v>35</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="10">
         <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="I50" s="5" t="str">
+        <v>75</v>
+      </c>
+      <c r="I50" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>D</v>
-      </c>
-      <c r="J50" s="3"/>
+        <v>C</v>
+      </c>
+      <c r="J50" s="10"/>
     </row>
     <row r="51" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
@@ -2376,35 +2389,35 @@
       </c>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
+    <row r="54" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
         <v>51</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="10">
         <v>10</v>
       </c>
-      <c r="E54" s="3">
-        <v>19</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="E54" s="10">
         <v>20</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3">
+      <c r="F54" s="10">
+        <v>20</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="I54" s="5" t="str">
+        <v>50</v>
+      </c>
+      <c r="I54" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="J54" s="3"/>
+        <v>FI</v>
+      </c>
+      <c r="J54" s="10"/>
     </row>
     <row r="55" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
@@ -2562,261 +2575,323 @@
       </c>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
+    <row r="60" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
         <v>57</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="10">
         <v>10</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="10">
         <v>5</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="10">
         <v>13</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="10">
+        <v>42</v>
+      </c>
+      <c r="H60" s="10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I60" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>58</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="10">
+        <v>10</v>
+      </c>
+      <c r="E61" s="10">
+        <v>5</v>
+      </c>
+      <c r="F61" s="10">
+        <v>18</v>
+      </c>
+      <c r="G61" s="10">
+        <v>37</v>
+      </c>
+      <c r="H61" s="10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I61" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>59</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="10">
+        <v>10</v>
+      </c>
+      <c r="E62" s="10">
+        <v>5</v>
+      </c>
+      <c r="F62" s="10">
+        <v>18</v>
+      </c>
+      <c r="G62" s="10">
+        <v>37</v>
+      </c>
+      <c r="H62" s="10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I62" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>60</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="10">
+        <v>10</v>
+      </c>
+      <c r="E63" s="10">
         <v>15</v>
       </c>
-      <c r="H60" s="3">
+      <c r="F63" s="10">
+        <v>13</v>
+      </c>
+      <c r="G63" s="10">
+        <v>32</v>
+      </c>
+      <c r="H63" s="10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I63" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>61</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="10">
+        <v>10</v>
+      </c>
+      <c r="E64" s="10">
+        <v>6</v>
+      </c>
+      <c r="F64" s="10">
+        <v>20</v>
+      </c>
+      <c r="G64" s="10">
+        <v>50</v>
+      </c>
+      <c r="H64" s="10">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="I64" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>62</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="10">
+        <v>10</v>
+      </c>
+      <c r="E65" s="10">
+        <v>15</v>
+      </c>
+      <c r="F65" s="10">
+        <v>18</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="I60" s="5" t="str">
+      <c r="I65" s="11" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
-        <v>58</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="J65" s="10"/>
+    </row>
+    <row r="66" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>63</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="10">
         <v>10</v>
       </c>
-      <c r="E61" s="3">
-        <v>5</v>
-      </c>
-      <c r="F61" s="3">
-        <v>8</v>
-      </c>
-      <c r="G61" s="3">
-        <v>35</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="E66" s="10">
+        <v>9</v>
+      </c>
+      <c r="F66" s="10">
+        <v>20</v>
+      </c>
+      <c r="G66" s="10">
+        <v>31</v>
+      </c>
+      <c r="H66" s="10">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="I61" s="5" t="str">
+        <v>70</v>
+      </c>
+      <c r="I66" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>FI</v>
-      </c>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
-        <v>59</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3">
+        <v>D</v>
+      </c>
+      <c r="J66" s="10"/>
+    </row>
+    <row r="67" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>64</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="10">
+        <v>10</v>
+      </c>
+      <c r="E67" s="10">
+        <v>10</v>
+      </c>
+      <c r="F67" s="10">
+        <v>20</v>
+      </c>
+      <c r="G67" s="10">
+        <v>50</v>
+      </c>
+      <c r="H67" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="5" t="str">
+        <v>90</v>
+      </c>
+      <c r="I67" s="11" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
-        <v>60</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3">
+        <v>A</v>
+      </c>
+      <c r="J67" s="10"/>
+    </row>
+    <row r="68" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>65</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="10">
+        <v>10</v>
+      </c>
+      <c r="E68" s="10">
+        <v>9</v>
+      </c>
+      <c r="F68" s="10">
+        <v>20</v>
+      </c>
+      <c r="G68" s="10">
+        <v>31</v>
+      </c>
+      <c r="H68" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="5" t="str">
+        <v>70</v>
+      </c>
+      <c r="I68" s="11" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
-        <v>61</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
-        <v>62</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
-        <v>63</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
-        <v>64</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
-        <v>65</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J68" s="3"/>
-    </row>
-    <row r="69" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
+        <v>D</v>
+      </c>
+      <c r="J68" s="10"/>
+    </row>
+    <row r="69" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
         <v>66</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3">
+      <c r="D69" s="10">
+        <v>10</v>
+      </c>
+      <c r="E69" s="10">
+        <v>10</v>
+      </c>
+      <c r="F69" s="10">
+        <v>20</v>
+      </c>
+      <c r="G69" s="10">
+        <v>50</v>
+      </c>
+      <c r="H69" s="10">
         <f t="shared" ref="H69:H71" si="2">(D69+E69+F69+G69)</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="5" t="str">
+        <v>90</v>
+      </c>
+      <c r="I69" s="11" t="str">
         <f t="shared" ref="I69:I132" si="3">IF((H69)&gt;=1,IF(H69&gt;=50,IF(H69&gt;=70,IF(H69&gt;=75,IF(H69&gt;=80,IF(H69&gt;=90,"A","B"),"C"),"D"),"FI"),"F"), "" )</f>
-        <v/>
-      </c>
-      <c r="J69" s="3"/>
+        <v>A</v>
+      </c>
+      <c r="J69" s="10"/>
     </row>
     <row r="70" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
@@ -2842,29 +2917,35 @@
       </c>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
+    <row r="71" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
         <v>68</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3">
+      <c r="D71" s="10">
+        <v>10</v>
+      </c>
+      <c r="E71" s="10">
+        <v>5</v>
+      </c>
+      <c r="F71" s="10">
+        <v>18</v>
+      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="5" t="str">
+        <v>33</v>
+      </c>
+      <c r="I71" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J71" s="3"/>
+        <v>F</v>
+      </c>
+      <c r="J71" s="10"/>
     </row>
     <row r="72" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
@@ -6683,19 +6764,19 @@
       <c r="J384" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3"/>
+  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OYM/_DocumentosComunes/_ProgEstructurada.xlsx
+++ b/OYM/_DocumentosComunes/_ProgEstructurada.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_kOneDrive\_DESARROLLO\_DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARRLLOPERSONAL\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B656B18F-5997-47F6-BFDC-059884229DF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -472,7 +471,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -845,14 +844,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -2181,37 +2180,37 @@
       </c>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+    <row r="47" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
         <v>44</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="10">
         <v>10</v>
       </c>
-      <c r="E47" s="3">
-        <v>6</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47" s="10">
+        <v>10</v>
+      </c>
+      <c r="F47" s="10">
         <v>20</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="10">
         <v>50</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="10">
         <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="I47" s="5" t="str">
+        <v>90</v>
+      </c>
+      <c r="I47" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-      <c r="J47" s="3"/>
+        <v>A</v>
+      </c>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
@@ -6764,19 +6763,19 @@
       <c r="J384" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:I3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
